--- a/Files/ExpResult/Du62-模拟退火算法1.xlsx
+++ b/Files/ExpResult/Du62-模拟退火算法1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32580" windowHeight="14880"/>
+    <workbookView windowWidth="32580" windowHeight="14860"/>
   </bookViews>
   <sheets>
     <sheet name="Du62-模拟退火算法" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="137">
   <si>
     <t>实例</t>
   </si>
@@ -345,6 +345,99 @@
   </si>
   <si>
     <t>[array([50, 25, 28, 54, 44]), array([15,  6, 38, 61, 14]), array([46, 16, 34, 42,  4]), array([58, 35,  5, 10, 55]), array([21,  9, 41,  8]), array([48, 29, 53]), array([45]), array([60, 49, 40, 52, 37, 27,  2, 11]), array([20]), array([24, 57]), array([33]), array([ 7, 56, 18, 12]), array([30, 22, 31, 23,  1, 19]), array([13, 17, 26, 43, 47, 39, 36]), array([51, 32,  3, 59, 62])]</t>
+  </si>
+  <si>
+    <t>[array([43,  2,  6, 35, 42, 12, 26, 32,  1]), array([23,  4, 20, 33, 49,  3, 48, 24, 38, 51, 28]), array([13]), array([61, 62, 37,  5,  7, 59, 16, 55, 52]), array([36, 58, 30,  8, 50, 45, 31, 29]), array([19, 39, 14, 54, 22, 40, 27, 56]), array([15, 10, 17]), array([44, 11, 18, 47, 53, 60, 46, 41, 34, 21]), array([25, 57,  9])]</t>
+  </si>
+  <si>
+    <t>不包含修复动作算子-k分初始解v3</t>
+  </si>
+  <si>
+    <t>[[48, 52, 19, 39], [59, 25, 24, 53], [51, 62, 43, 38, 11, 41, 15], [8, 2, 29, 7, 56], [46, 55, 32, 5, 42], [58, 35, 50, 49, 28, 9, 31], [4, 33, 61, 47, 22], [26, 40, 17, 18, 45, 3, 54], [34, 21, 36, 57, 14], [27, 30, 44, 20, 60, 10], [37, 13, 23, 1, 6, 12, 16]]</t>
+  </si>
+  <si>
+    <t>[array([38, 16, 15,  1, 32,  4, 49]), array([39,  9, 24, 41, 59,  7]), array([45, 62, 37, 26,  8]), array([43,  3, 23, 25, 44, 47,  6]), array([60, 36, 14, 12, 29, 48, 40, 34]), array([31, 10, 56,  2, 28, 27, 46]), array([20, 51, 42, 54, 52]), array([13, 50]), array([30, 53, 58, 33, 22,  5, 55]), array([61, 17, 11, 18, 35, 21, 57, 19])]</t>
+  </si>
+  <si>
+    <t>[[61, 53, 4, 40, 7, 52], [11, 26, 33, 18], [56, 39, 29, 34, 49, 60, 16, 47, 21, 31, 1], [36, 46, 12, 28, 35, 17], [50, 62, 13, 32, 41, 15, 54], [2, 42, 14, 20, 57, 58, 19], [45, 43, 55, 25, 8, 9], [5, 10, 24, 22, 48, 23, 37], [44, 38, 30, 3, 51, 59, 27, 6]]</t>
+  </si>
+  <si>
+    <t>[array([33, 45, 13]), array([47, 26, 27, 10, 32, 52]), array([59, 48, 36, 21, 60, 38, 35,  6,  3,  7, 25, 24, 14]), array([46, 39, 16, 43, 22, 42, 49, 50, 54]), array([56,  5, 40, 61, 28, 18, 15, 30, 37]), array([ 9,  1, 19, 20, 11, 51, 41]), array([53, 12, 23, 58,  8,  2, 29, 44]), array([31, 34, 62, 57, 17, 55,  4])]</t>
+  </si>
+  <si>
+    <t>[array([22, 31,  9]), array([47, 33,  2, 24, 52]), array([19, 35, 23, 32]), array([ 7, 29, 14]), array([ 6, 48, 11, 13, 36, 59, 28, 15]), array([61, 45, 49, 17, 56]), array([34, 12, 30, 39, 10]), array([26, 44, 55, 54, 60]), array([16, 38, 40, 37, 50]), array([41,  8,  3, 42]), array([25,  4, 57,  1,  5]), array([20, 62, 27, 21, 58]), array([18, 43, 51, 53, 46])]</t>
+  </si>
+  <si>
+    <t>[array([51,  5, 22, 14, 46, 33, 42]), array([38,  1,  7,  9, 36, 15]), array([16, 60, 48, 19, 37]), array([44, 21,  3,  2, 47, 30,  4]), array([50, 13, 40, 35, 26, 49, 28, 52]), array([31, 29, 27, 41,  6, 45, 59]), array([ 8, 24, 12, 34, 32, 25, 58]), array([57, 18, 11, 17, 55, 10, 23]), array([53, 39, 20, 43, 62, 54, 56, 61])]</t>
+  </si>
+  <si>
+    <t>[array([54, 26,  4, 51, 37, 19, 44]), array([48, 13, 49, 33]), array([17, 22,  5, 32, 43]), array([20, 60, 38, 41, 31,  7]), array([11, 34, 36, 25, 52,  8, 29, 57, 61]), array([42,  1, 35, 10]), array([ 9, 50, 27, 45, 12, 39, 55]), array([40, 53, 46,  2, 16, 14]), array([58, 59, 28,  6, 15, 23]), array([ 3, 47, 62, 21, 56, 24, 30, 18])]</t>
+  </si>
+  <si>
+    <t>[array([44,  4, 43, 23, 60, 22]), array([19, 27,  9]), array([49, 26, 10, 39, 34]), array([42, 47, 54,  5, 45]), array([17]), array([33]), array([41, 25, 18, 12, 51, 20]), array([38, 48, 57,  3,  2, 30, 56, 61,  7]), array([15]), array([13]), array([62]), array([50]), array([11]), array([35,  1]), array([52]), array([8]), array([29]), array([14]), array([21]), array([53, 37, 32,  6, 36, 58]), array([31]), array([28, 16, 40, 24, 55, 59, 46])]</t>
+  </si>
+  <si>
+    <t>[array([34, 21, 36, 48, 54, 16,  6, 61, 19]), array([47, 37, 43, 22, 51, 25, 13, 20]), array([28, 40, 27, 39, 38, 55, 26, 10, 59, 14, 52, 15]), array([12, 11, 56,  5, 30, 45, 41, 58,  2, 57, 17]), array([ 8, 50, 44, 18, 32, 46, 60, 42, 53, 24, 49]), array([35,  1,  3, 31,  7, 23,  9,  4, 62, 33, 29])]</t>
+  </si>
+  <si>
+    <t>[array([27, 31, 59,  9]), array([16,  7, 38, 21,  5]), array([53, 13, 15]), array([30, 47,  8, 33]), array([29, 20, 52, 28, 35, 60, 56]), array([45, 17, 48, 32]), array([49, 23, 18, 42, 14, 44, 19]), array([ 6, 46, 34, 39, 12]), array([57, 37, 11, 54, 55,  2,  1]), array([25, 58, 36,  4, 40]), array([24, 51, 61, 41, 22, 43]), array([62, 50, 10,  3, 26])]</t>
+  </si>
+  <si>
+    <t>[array([48, 27, 33, 18, 30, 44, 43, 58, 12]), array([15, 34,  4, 11, 57, 14, 36]), array([37, 50, 41,  1]), array([60, 51, 52,  2, 49, 61, 13]), array([21, 32,  9, 55, 45, 40, 47]), array([46, 59, 19,  8, 16]), array([39, 28, 26, 10, 53, 20]), array([29,  7, 56, 22]), array([54,  3]), array([31, 35, 24, 17,  6,  5]), array([62, 23, 25, 38, 42])]</t>
+  </si>
+  <si>
+    <t>[array([46, 53, 55,  8,  9, 59, 29, 12]), array([44, 58, 27, 24, 33,  3]), array([16, 26, 15, 52,  4, 57, 34, 37, 28]), array([41, 13,  6, 51, 10, 56, 39]), array([18, 45, 17, 47, 61, 20, 42,  2, 40]), array([ 7, 32, 54, 38,  1,  5]), array([30, 31, 43, 14, 36, 25, 19]), array([23, 11, 60, 50, 48, 35, 21, 22, 49, 62])]</t>
+  </si>
+  <si>
+    <t>[array([30, 32, 46, 61, 43, 19, 59]), array([12, 36, 22,  5, 34, 56]), array([53, 45, 48, 10,  9]), array([50, 51, 13, 29, 62, 21, 31]), array([23,  8, 42, 20, 40, 52, 44, 15]), array([26, 24, 11, 14, 47, 49,  4]), array([ 1, 41,  2, 35, 18, 33, 27]), array([38, 54,  7, 60, 28, 57, 58]), array([37,  3, 17, 55, 25, 39,  6, 16])]</t>
+  </si>
+  <si>
+    <t>[array([39, 62,  9, 26, 51]), array([56, 46, 25, 16, 21, 17]), array([ 4, 29, 48,  1, 24]), array([ 8, 30, 15, 37, 43]), array([28]), array([50, 38, 61]), array([12,  2, 22, 10, 19, 53,  5]), array([40, 47, 23, 32, 36]), array([45, 31, 33, 58, 42, 35,  6]), array([49, 34, 13, 52, 54]), array([59,  7, 18, 41, 11, 55]), array([14, 20,  3, 44, 60, 27, 57])]</t>
+  </si>
+  <si>
+    <t>[array([55, 28, 29,  8,  1, 42, 45, 25, 32]), array([57, 23, 12, 53, 31, 38, 49, 47]), array([22, 18, 60,  7,  3, 52, 17, 20, 61, 21, 41]), array([ 9, 37, 11, 26, 46, 30, 44,  5, 36, 16, 56]), array([50]), array([15, 27, 59, 10, 14, 51, 54, 58, 19, 43,  6]), array([40, 35, 62,  4, 24, 39, 48, 34, 33, 13,  2])]</t>
+  </si>
+  <si>
+    <t>[[34, 30, 4, 37, 45], [36, 11, 31], [6, 58, 54, 35], [56, 43], [39], [49, 55, 52, 5, 41], [32, 27, 50, 3, 10], [53, 13, 8, 18, 59, 33], [19, 62, 48, 38, 44], [42, 20, 61, 40, 16], [9, 47, 57, 28, 14], [2, 17, 51, 1, 21], [26, 22, 46, 15, 24], [25, 12, 29, 23, 60, 7]]</t>
+  </si>
+  <si>
+    <t>[array([32, 20, 58,  1, 12, 37, 41, 42, 30,  9, 10]), array([57, 38, 50, 54, 15, 24, 35]), array([55,  6, 16, 39, 27, 56, 25, 52]), array([33, 44, 40, 18, 62, 36,  8, 45, 46,  5, 53, 34]), array([47, 11, 51, 23]), array([59, 14, 19,  2, 26,  4, 49, 61, 43]), array([60, 28, 17, 22,  3]), array([ 7, 13, 31, 29, 21, 48])]</t>
+  </si>
+  <si>
+    <t>[array([12, 14, 60, 49]), array([ 6, 20, 39, 40, 26]), array([55, 17, 54,  8]), array([61,  5, 27, 25, 35, 24]), array([41, 37, 48, 50, 52, 29,  3]), array([21, 33, 46, 15, 51]), array([57, 58, 45, 31, 32, 38, 34]), array([10,  2, 13, 23, 18]), array([ 1, 30,  4,  7, 47, 53, 11, 28, 22]), array([62, 19, 42]), array([44, 36, 16, 43, 56,  9, 59])]</t>
+  </si>
+  <si>
+    <t>[array([58, 32, 11, 10, 33]), array([3, 8]), array([56, 14, 46, 20,  6]), array([45, 17, 18, 38,  1]), array([25, 53, 62, 29, 51]), array([43, 57, 52, 19, 54, 36,  9, 26]), array([ 4, 16]), array([60, 24, 59, 15]), array([41, 30, 39, 21, 34, 35, 61]), array([47, 40,  2, 42, 49]), array([27]), array([31, 22, 44, 13, 48, 12, 50]), array([28,  5,  7, 55, 23, 37])]</t>
+  </si>
+  <si>
+    <t>[[20, 13, 25, 43, 32, 48], [44, 35, 27, 53], [8, 21, 55, 6, 36], [31, 57, 1, 9, 26, 59], [45, 3, 54, 29, 60, 61], [28, 19, 51, 49, 23, 41, 16], [37, 15, 12, 5, 17, 58, 40], [62, 7, 33, 46, 30, 22], [52, 47, 14, 38, 56, 18, 34], [24, 2, 42, 50, 4, 11, 39, 10]]</t>
+  </si>
+  <si>
+    <t>[[7, 16, 34, 28, 52, 56, 6], [44, 51, 33, 29, 38, 57], [4, 58, 21, 42, 60, 36], [20, 18, 10, 17, 5, 19, 24], [35, 48, 15, 47, 11, 30, 49, 23, 13], [41, 31, 25, 39, 37, 12, 61, 46, 9], [43, 40, 54, 55, 32, 22, 45, 26], [27, 59, 8, 53, 14, 50, 3, 62, 2, 1]]</t>
+  </si>
+  <si>
+    <t>[array([35, 27, 17, 24,  8, 42, 39]), array([47, 40, 32, 18, 34, 44,  3,  5, 58, 51,  2]), array([12, 16]), array([21, 31, 43,  4, 45, 29]), array([57, 13]), array([48,  7,  6, 10, 30]), array([37, 15, 20, 62, 28]), array([26, 22,  1, 14, 60, 38]), array([ 9, 41, 11, 46, 52, 53, 59, 61, 50, 49, 54]), array([55, 25, 19, 33, 56, 36, 23])]</t>
+  </si>
+  <si>
+    <t>[[24, 17, 6, 19, 48, 54, 46, 53, 12], [39, 31, 27, 37, 5, 35, 28, 25], [56, 1, 21, 60, 4, 58, 50, 15, 51, 2, 36], [26, 45, 32, 38, 22, 34, 13, 18, 29, 47, 9], [11, 57, 55, 52, 20, 61, 23, 8, 14, 42, 49], [7, 59, 41, 40, 16, 33, 30, 44, 3, 10, 62, 43]]</t>
+  </si>
+  <si>
+    <t>[array([35, 28, 55, 39, 42, 33]), array([21, 56, 52,  4]), array([36]), array([17, 46]), array([37, 10,  2, 19,  1]), array([29, 47]), array([13, 43,  8]), array([30, 58, 41]), array([16, 34, 31, 40, 53, 11, 27,  5, 50, 14]), array([22, 26,  6]), array([ 7, 18, 62, 49, 45, 59, 25]), array([ 9, 23, 60, 38, 15]), array([20]), array([61, 12, 57, 24, 48, 44, 32, 54]), array([ 3, 51])]</t>
+  </si>
+  <si>
+    <t>[array([24, 11, 44, 46, 38, 20, 53]), array([32, 52, 23, 16, 62, 36,  7]), array([13, 21, 41, 51, 61, 45, 57,  3, 55, 37, 30]), array([60, 29,  2,  6, 35, 59, 47, 48, 26, 18, 28, 31, 58]), array([33,  8, 10, 54, 43, 49]), array([ 5, 56,  4, 27]), array([12, 40, 17, 34, 42, 19]), array([25,  9, 39, 15, 50, 14,  1, 22])]</t>
+  </si>
+  <si>
+    <t>[array([55, 27, 29, 33, 12, 11, 53, 20]), array([49,  4, 39, 14, 19, 51]), array([42, 21, 10, 45, 60, 50,  6,  1]), array([ 3, 43, 26, 41,  5, 24, 22,  2, 59, 16, 34]), array([61, 31, 37, 58, 38,  9, 32, 46, 18, 40]), array([52, 48, 62, 35, 13,  8, 15, 44, 25, 30]), array([ 7, 17, 56, 57, 23, 28, 36, 54, 47])]</t>
+  </si>
+  <si>
+    <t>[array([14, 17, 58, 16, 34]), array([13]), array([30, 36, 57]), array([ 9, 61, 10, 31]), array([53, 32, 45]), array([59,  4, 62, 46]), array([11, 40,  5, 12]), array([28, 60, 26, 15]), array([ 1, 50,  8, 51,  2]), array([37, 29, 52, 44, 42]), array([ 3, 23, 33, 55, 47]), array([21, 19, 27, 20, 41]), array([ 7, 18, 22,  6, 39]), array([24, 56, 25, 43, 48, 38, 49, 35, 54])]</t>
+  </si>
+  <si>
+    <t>[array([ 4, 55, 32, 39,  7, 18, 41, 23]), array([57, 51, 25, 49]), array([17, 21, 50]), array([19, 16, 28, 20]), array([5, 3, 6, 8]), array([43, 15, 26, 59, 44]), array([56, 35, 27, 40, 54]), array([12, 14, 48, 60, 45]), array([42, 58, 37, 22, 34]), array([11,  9,  1, 62]), array([30, 24, 10,  2, 29]), array([13, 52, 47, 38, 31]), array([61, 46, 53, 36, 33])]</t>
+  </si>
+  <si>
+    <t>[array([49, 12, 20, 48, 58]), array([54, 36, 32, 25, 31]), array([46, 61,  9, 43, 53]), array([62, 13,  1, 47,  7]), array([27]), array([11, 42, 56,  6, 22]), array([30, 59, 10,  3, 55, 14,  2]), array([ 5, 45, 52, 28]), array([40, 44, 39, 29, 21, 50, 33]), array([34, 38,  4, 57, 17]), array([60, 51, 16, 19, 37, 41]), array([23, 18, 35]), array([ 8, 15, 24, 26])]</t>
   </si>
 </sst>
 </file>
@@ -1513,10 +1606,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
@@ -4710,6 +4803,1056 @@
         <v>76</v>
       </c>
     </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E92" s="1">
+        <v>613028801.542805</v>
+      </c>
+      <c r="F92" s="4">
+        <v>45768.8897258565</v>
+      </c>
+      <c r="G92" s="4">
+        <v>45768.8897267593</v>
+      </c>
+      <c r="H92" s="4">
+        <v>45768.8898275926</v>
+      </c>
+      <c r="I92" s="1">
+        <v>8.789674</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.077911</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" s="1">
+        <v>595009591.4307</v>
+      </c>
+      <c r="F93" s="4">
+        <v>45768.8898283796</v>
+      </c>
+      <c r="G93" s="4">
+        <v>45768.8898291898</v>
+      </c>
+      <c r="H93" s="4">
+        <v>45768.8899349537</v>
+      </c>
+      <c r="I93" s="1">
+        <v>9.207975</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0.070074</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" s="1">
+        <v>43666344.1489004</v>
+      </c>
+      <c r="F94" s="4">
+        <v>45768.8899352083</v>
+      </c>
+      <c r="G94" s="4">
+        <v>45768.889936088</v>
+      </c>
+      <c r="H94" s="4">
+        <v>45768.8900361111</v>
+      </c>
+      <c r="I94" s="1">
+        <v>8.717716</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.075729</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95" s="1">
+        <v>9708053.08058246</v>
+      </c>
+      <c r="F95" s="4">
+        <v>45768.8900363657</v>
+      </c>
+      <c r="G95" s="4">
+        <v>45768.8900371991</v>
+      </c>
+      <c r="H95" s="4">
+        <v>45768.8901386227</v>
+      </c>
+      <c r="I95" s="1">
+        <v>8.83437</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0.071555</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="1">
+        <v>299596217.020387</v>
+      </c>
+      <c r="F96" s="4">
+        <v>45768.8901388773</v>
+      </c>
+      <c r="G96" s="4">
+        <v>45768.8901398148</v>
+      </c>
+      <c r="H96" s="4">
+        <v>45768.8902436227</v>
+      </c>
+      <c r="I96" s="1">
+        <v>9.050137</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0.081306</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97" s="1">
+        <v>6200785417.39655</v>
+      </c>
+      <c r="F97" s="4">
+        <v>45768.8902438889</v>
+      </c>
+      <c r="G97" s="4">
+        <v>45768.890244919</v>
+      </c>
+      <c r="H97" s="4">
+        <v>45768.8903474421</v>
+      </c>
+      <c r="I97" s="1">
+        <v>8.947153</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0.089274</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" s="1">
+        <v>9629668.73937301</v>
+      </c>
+      <c r="F98" s="4">
+        <v>45768.8903477083</v>
+      </c>
+      <c r="G98" s="4">
+        <v>45768.8903485764</v>
+      </c>
+      <c r="H98" s="4">
+        <v>45768.8904516435</v>
+      </c>
+      <c r="I98" s="1">
+        <v>8.980095</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0.075361</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="1">
+        <v>42083987.0075992</v>
+      </c>
+      <c r="F99" s="4">
+        <v>45768.8904519213</v>
+      </c>
+      <c r="G99" s="4">
+        <v>45768.8904528819</v>
+      </c>
+      <c r="H99" s="4">
+        <v>45768.8905560417</v>
+      </c>
+      <c r="I99" s="1">
+        <v>8.996131</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0.082917</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" s="1">
+        <v>17930952857.6119</v>
+      </c>
+      <c r="F100" s="4">
+        <v>45768.8905563079</v>
+      </c>
+      <c r="G100" s="4">
+        <v>45768.890653044</v>
+      </c>
+      <c r="H100" s="4">
+        <v>45768.8906628125</v>
+      </c>
+      <c r="I100" s="1">
+        <v>9.202107</v>
+      </c>
+      <c r="J100" s="1">
+        <v>8.357788</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E101" s="1">
+        <v>134520063.528729</v>
+      </c>
+      <c r="F101" s="4">
+        <v>45768.8906630903</v>
+      </c>
+      <c r="G101" s="4">
+        <v>45768.8906639583</v>
+      </c>
+      <c r="H101" s="4">
+        <v>45768.890766331</v>
+      </c>
+      <c r="I101" s="1">
+        <v>8.920234</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0.074751</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1060492605.8288</v>
+      </c>
+      <c r="F102" s="4">
+        <v>45768.8907666204</v>
+      </c>
+      <c r="G102" s="4">
+        <v>45768.8907675116</v>
+      </c>
+      <c r="H102" s="4">
+        <v>45768.8908698148</v>
+      </c>
+      <c r="I102" s="1">
+        <v>8.915718</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0.077242</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103" s="1">
+        <v>602360068.522211</v>
+      </c>
+      <c r="F103" s="4">
+        <v>45768.8908700926</v>
+      </c>
+      <c r="G103" s="4">
+        <v>45768.8908721296</v>
+      </c>
+      <c r="H103" s="4">
+        <v>45768.8909760995</v>
+      </c>
+      <c r="I103" s="1">
+        <v>9.159313</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0.176131</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104" s="1">
+        <v>4745434.29645773</v>
+      </c>
+      <c r="F104" s="4">
+        <v>45768.8909763889</v>
+      </c>
+      <c r="G104" s="4">
+        <v>45768.8909772801</v>
+      </c>
+      <c r="H104" s="4">
+        <v>45768.8910804977</v>
+      </c>
+      <c r="I104" s="1">
+        <v>8.995652</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0.077513</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="1">
+        <v>4877429.17268064</v>
+      </c>
+      <c r="F105" s="4">
+        <v>45768.8910810764</v>
+      </c>
+      <c r="G105" s="4">
+        <v>45768.8910819213</v>
+      </c>
+      <c r="H105" s="4">
+        <v>45768.8911875116</v>
+      </c>
+      <c r="I105" s="1">
+        <v>9.195248</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0.072542</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="1">
+        <v>603212245.292165</v>
+      </c>
+      <c r="F106" s="4">
+        <v>45768.8911877894</v>
+      </c>
+      <c r="G106" s="4">
+        <v>45768.8911887269</v>
+      </c>
+      <c r="H106" s="4">
+        <v>45768.8912925347</v>
+      </c>
+      <c r="I106" s="1">
+        <v>9.049817</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0.080661</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" s="1">
+        <v>131505090.570677</v>
+      </c>
+      <c r="F107" s="4">
+        <v>45768.8912928125</v>
+      </c>
+      <c r="G107" s="4">
+        <v>45768.8912936343</v>
+      </c>
+      <c r="H107" s="4">
+        <v>45768.8913976389</v>
+      </c>
+      <c r="I107" s="1">
+        <v>9.056918</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0.071418</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E108" s="1">
+        <v>6137239242.70803</v>
+      </c>
+      <c r="F108" s="4">
+        <v>45768.8913979282</v>
+      </c>
+      <c r="G108" s="4">
+        <v>45768.8913987732</v>
+      </c>
+      <c r="H108" s="4">
+        <v>45768.8915020833</v>
+      </c>
+      <c r="I108" s="1">
+        <v>8.999095</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0.072762</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E109" s="1">
+        <v>43613881.8004878</v>
+      </c>
+      <c r="F109" s="4">
+        <v>45768.8915023611</v>
+      </c>
+      <c r="G109" s="4">
+        <v>45768.8915035648</v>
+      </c>
+      <c r="H109" s="4">
+        <v>45768.8916074306</v>
+      </c>
+      <c r="I109" s="1">
+        <v>9.077922</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0.10405</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110" s="1">
+        <v>315323303.068506</v>
+      </c>
+      <c r="F110" s="4">
+        <v>45768.8916077199</v>
+      </c>
+      <c r="G110" s="4">
+        <v>45768.8916086921</v>
+      </c>
+      <c r="H110" s="4">
+        <v>45768.8917100231</v>
+      </c>
+      <c r="I110" s="1">
+        <v>8.838816</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0.08409</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1046337609.42174</v>
+      </c>
+      <c r="F111" s="4">
+        <v>45768.8917103125</v>
+      </c>
+      <c r="G111" s="4">
+        <v>45768.891711794</v>
+      </c>
+      <c r="H111" s="4">
+        <v>45768.8918164815</v>
+      </c>
+      <c r="I111" s="1">
+        <v>9.172791</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0.128032</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" s="1">
+        <v>312300494.510751</v>
+      </c>
+      <c r="F112" s="4">
+        <v>45768.8918167708</v>
+      </c>
+      <c r="G112" s="4">
+        <v>45768.8918175926</v>
+      </c>
+      <c r="H112" s="4">
+        <v>45768.8919253357</v>
+      </c>
+      <c r="I112" s="1">
+        <v>9.380092</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0.070721</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E113" s="1">
+        <v>4815118.15707518</v>
+      </c>
+      <c r="F113" s="4">
+        <v>45768.891925625</v>
+      </c>
+      <c r="G113" s="4">
+        <v>45768.8919264583</v>
+      </c>
+      <c r="H113" s="4">
+        <v>45768.8920305903</v>
+      </c>
+      <c r="I113" s="1">
+        <v>9.068595</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0.072176</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114" s="1">
+        <v>606138428.236228</v>
+      </c>
+      <c r="F114" s="4">
+        <v>45768.8920308796</v>
+      </c>
+      <c r="G114" s="4">
+        <v>45768.892032037</v>
+      </c>
+      <c r="H114" s="4">
+        <v>45768.8921378704</v>
+      </c>
+      <c r="I114" s="1">
+        <v>9.244408</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0.099702</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E115" s="1">
+        <v>42213715.3554453</v>
+      </c>
+      <c r="F115" s="4">
+        <v>45768.8921381829</v>
+      </c>
+      <c r="G115" s="4">
+        <v>45768.8921390046</v>
+      </c>
+      <c r="H115" s="4">
+        <v>45768.8922465625</v>
+      </c>
+      <c r="I115" s="1">
+        <v>9.363815</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0.070836</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E116" s="1">
+        <v>26714095496.2333</v>
+      </c>
+      <c r="F116" s="4">
+        <v>45768.8922468634</v>
+      </c>
+      <c r="G116" s="4">
+        <v>45768.8922495833</v>
+      </c>
+      <c r="H116" s="4">
+        <v>45768.8923571991</v>
+      </c>
+      <c r="I116" s="1">
+        <v>9.533754</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0.235693</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" s="1">
+        <v>310184196.184855</v>
+      </c>
+      <c r="F117" s="4">
+        <v>45768.8923575</v>
+      </c>
+      <c r="G117" s="4">
+        <v>45768.8923584607</v>
+      </c>
+      <c r="H117" s="4">
+        <v>45768.8924617361</v>
+      </c>
+      <c r="I117" s="1">
+        <v>9.00623</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0.082917</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E118" s="1">
+        <v>4802053.37696647</v>
+      </c>
+      <c r="F118" s="4">
+        <v>45768.892462037</v>
+      </c>
+      <c r="G118" s="4">
+        <v>45768.8924629398</v>
+      </c>
+      <c r="H118" s="4">
+        <v>45768.8925660995</v>
+      </c>
+      <c r="I118" s="1">
+        <v>8.990913</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0.077889</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119" s="1">
+        <v>12704837135.4154</v>
+      </c>
+      <c r="F119" s="4">
+        <v>45768.8925664005</v>
+      </c>
+      <c r="G119" s="4">
+        <v>45768.8925673611</v>
+      </c>
+      <c r="H119" s="4">
+        <v>45768.8926723843</v>
+      </c>
+      <c r="I119" s="1">
+        <v>9.156526</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0.082677</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" s="1">
+        <v>10535013190.0617</v>
+      </c>
+      <c r="F120" s="4">
+        <v>45768.8926726852</v>
+      </c>
+      <c r="G120" s="4">
+        <v>45768.892673588</v>
+      </c>
+      <c r="H120" s="4">
+        <v>45768.8927811343</v>
+      </c>
+      <c r="I120" s="1">
+        <v>9.369242</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0.077853</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="1">
+        <v>5513</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E121" s="1">
+        <v>3362232408.63427</v>
+      </c>
+      <c r="F121" s="4">
+        <v>45768.8927814352</v>
+      </c>
+      <c r="G121" s="4">
+        <v>45768.8927823611</v>
+      </c>
+      <c r="H121" s="4">
+        <v>45768.8928901852</v>
+      </c>
+      <c r="I121" s="1">
+        <v>9.396132</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0.08011</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
